--- a/blog/gender/gender_char.xlsx
+++ b/blog/gender/gender_char.xlsx
@@ -283,7 +283,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>2024.02.01. 월간</t>
+          <t>2024.08.01. 월간</t>
         </is>
       </c>
     </row>
@@ -319,7 +319,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>2024년 03월 11일 18시 10분 22초</t>
+          <t>2024년 09월 04일 19시 07분 39초</t>
         </is>
       </c>
     </row>
@@ -360,12 +360,12 @@
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>28.34</t>
+          <t>29.95</t>
         </is>
       </c>
     </row>
@@ -382,12 +382,12 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>283</t>
         </is>
       </c>
       <c r="D11" s="9" t="inlineStr">
         <is>
-          <t>71.66</t>
+          <t>70.05</t>
         </is>
       </c>
     </row>
@@ -448,12 +448,12 @@
       </c>
       <c r="C14" s="8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.98</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="C15" s="9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D15" s="9" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>7.43</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="C16" s="8" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D16" s="8" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>13.86</t>
         </is>
       </c>
     </row>
@@ -514,12 +514,12 @@
       </c>
       <c r="C17" s="9" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D17" s="9" t="inlineStr">
         <is>
-          <t>31.37</t>
+          <t>27.48</t>
         </is>
       </c>
     </row>
@@ -536,12 +536,12 @@
       </c>
       <c r="C18" s="8" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D18" s="8" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>4.95</t>
         </is>
       </c>
     </row>
@@ -558,12 +558,12 @@
       </c>
       <c r="C19" s="9" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D19" s="9" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>10.89</t>
         </is>
       </c>
     </row>
@@ -580,12 +580,12 @@
       </c>
       <c r="C20" s="8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>2.23</t>
         </is>
       </c>
     </row>
@@ -602,12 +602,12 @@
       </c>
       <c r="C21" s="9" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D21" s="9" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>5.45</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.49</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="C23" s="9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D23" s="9" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.47</t>
         </is>
       </c>
     </row>
@@ -668,12 +668,12 @@
       </c>
       <c r="C24" s="8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.73</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="C25" s="9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D25" s="9" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>4.7</t>
         </is>
       </c>
     </row>
@@ -712,12 +712,12 @@
       </c>
       <c r="C26" s="8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       </c>
       <c r="C27" s="9" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D27" s="9" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>3.71</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>0.99</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="C29" s="9" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D29" s="9" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>1.73</t>
         </is>
       </c>
     </row>
@@ -800,12 +800,12 @@
       </c>
       <c r="C30" s="8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.24</t>
         </is>
       </c>
     </row>
@@ -822,12 +822,12 @@
       </c>
       <c r="C31" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D31" s="9" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>2.23</t>
         </is>
       </c>
     </row>
@@ -844,12 +844,12 @@
       </c>
       <c r="C32" s="8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.99</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="C33" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D33" s="9" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>2.97</t>
         </is>
       </c>
     </row>

--- a/blog/gender/gender_char.xlsx
+++ b/blog/gender/gender_char.xlsx
@@ -283,7 +283,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>2024.08.01. 월간</t>
+          <t>2024.09.01. 월간</t>
         </is>
       </c>
     </row>
@@ -319,7 +319,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>2024년 09월 04일 19시 07분 39초</t>
+          <t>2024년 10월 02일 19시 45분 06초</t>
         </is>
       </c>
     </row>
@@ -360,12 +360,12 @@
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>29.14</t>
         </is>
       </c>
     </row>
@@ -382,12 +382,12 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>338</t>
         </is>
       </c>
       <c r="D11" s="9" t="inlineStr">
         <is>
-          <t>70.05</t>
+          <t>70.86</t>
         </is>
       </c>
     </row>
@@ -448,12 +448,12 @@
       </c>
       <c r="C14" s="8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.26</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="C15" s="9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D15" s="9" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>5.66</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="C16" s="8" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D16" s="8" t="inlineStr">
         <is>
-          <t>13.86</t>
+          <t>10.69</t>
         </is>
       </c>
     </row>
@@ -514,12 +514,12 @@
       </c>
       <c r="C17" s="9" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D17" s="9" t="inlineStr">
         <is>
-          <t>27.48</t>
+          <t>31.45</t>
         </is>
       </c>
     </row>
@@ -536,12 +536,12 @@
       </c>
       <c r="C18" s="8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D18" s="8" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.92</t>
         </is>
       </c>
     </row>
@@ -558,12 +558,12 @@
       </c>
       <c r="C19" s="9" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D19" s="9" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>6.71</t>
         </is>
       </c>
     </row>
@@ -580,12 +580,12 @@
       </c>
       <c r="C20" s="8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.94</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="D21" s="9" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>4.61</t>
         </is>
       </c>
     </row>
@@ -624,12 +624,12 @@
       </c>
       <c r="C22" s="8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>2.31</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="C23" s="9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D23" s="9" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.77</t>
         </is>
       </c>
     </row>
@@ -668,12 +668,12 @@
       </c>
       <c r="C24" s="8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.05</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="C25" s="9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D25" s="9" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.66</t>
         </is>
       </c>
     </row>
@@ -712,12 +712,12 @@
       </c>
       <c r="C26" s="8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.47</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       </c>
       <c r="C27" s="9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D27" s="9" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>5.66</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.47</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="C29" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D29" s="9" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>3.77</t>
         </is>
       </c>
     </row>
@@ -800,12 +800,12 @@
       </c>
       <c r="C30" s="8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.42</t>
         </is>
       </c>
     </row>
@@ -822,12 +822,12 @@
       </c>
       <c r="C31" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D31" s="9" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>0.84</t>
         </is>
       </c>
     </row>
@@ -844,12 +844,12 @@
       </c>
       <c r="C32" s="8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.63</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="C33" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D33" s="9" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.73</t>
         </is>
       </c>
     </row>

--- a/blog/gender/gender_char.xlsx
+++ b/blog/gender/gender_char.xlsx
@@ -283,7 +283,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>2024.09.01. 월간</t>
+          <t>2024.10.01. 월간</t>
         </is>
       </c>
     </row>
@@ -319,7 +319,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>2024년 10월 02일 19시 45분 06초</t>
+          <t>2024년 11월 10일 24시 38분 00초</t>
         </is>
       </c>
     </row>
@@ -360,12 +360,12 @@
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>29.14</t>
+          <t>30.5</t>
         </is>
       </c>
     </row>
@@ -382,12 +382,12 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>196</t>
         </is>
       </c>
       <c r="D11" s="9" t="inlineStr">
         <is>
-          <t>70.86</t>
+          <t>69.5</t>
         </is>
       </c>
     </row>
@@ -448,12 +448,12 @@
       </c>
       <c r="C14" s="8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.06</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="C15" s="9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D15" s="9" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>1.42</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="C16" s="8" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D16" s="8" t="inlineStr">
         <is>
-          <t>10.69</t>
+          <t>9.57</t>
         </is>
       </c>
     </row>
@@ -514,12 +514,12 @@
       </c>
       <c r="C17" s="9" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D17" s="9" t="inlineStr">
         <is>
-          <t>31.45</t>
+          <t>11.35</t>
         </is>
       </c>
     </row>
@@ -536,12 +536,12 @@
       </c>
       <c r="C18" s="8" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D18" s="8" t="inlineStr">
         <is>
-          <t>6.92</t>
+          <t>3.55</t>
         </is>
       </c>
     </row>
@@ -558,12 +558,12 @@
       </c>
       <c r="C19" s="9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D19" s="9" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>10.99</t>
         </is>
       </c>
     </row>
@@ -580,12 +580,12 @@
       </c>
       <c r="C20" s="8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>1.42</t>
         </is>
       </c>
     </row>
@@ -602,12 +602,12 @@
       </c>
       <c r="C21" s="9" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D21" s="9" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>9.22</t>
         </is>
       </c>
     </row>
@@ -624,12 +624,12 @@
       </c>
       <c r="C22" s="8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>1.77</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="C23" s="9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D23" s="9" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>5.67</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.77</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="C25" s="9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D25" s="9" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>5.67</t>
         </is>
       </c>
     </row>
@@ -712,12 +712,12 @@
       </c>
       <c r="C26" s="8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.42</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       </c>
       <c r="C27" s="9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D27" s="9" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>11.35</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="C29" s="9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D29" s="9" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>8.51</t>
         </is>
       </c>
     </row>
@@ -800,12 +800,12 @@
       </c>
       <c r="C30" s="8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>2.13</t>
         </is>
       </c>
     </row>
@@ -822,12 +822,12 @@
       </c>
       <c r="C31" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D31" s="9" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>2.48</t>
         </is>
       </c>
     </row>
@@ -844,12 +844,12 @@
       </c>
       <c r="C32" s="8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="C33" s="9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D33" s="9" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.84</t>
         </is>
       </c>
     </row>

--- a/blog/gender/gender_char.xlsx
+++ b/blog/gender/gender_char.xlsx
@@ -283,7 +283,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>2024.10.01. 월간</t>
+          <t>2024.11.01. 월간</t>
         </is>
       </c>
     </row>
@@ -319,7 +319,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>2024년 11월 10일 24시 38분 00초</t>
+          <t>2024년 12월 08일 16시 47분 19초</t>
         </is>
       </c>
     </row>
@@ -360,12 +360,12 @@
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>30.5</t>
+          <t>41.38</t>
         </is>
       </c>
     </row>
@@ -382,12 +382,12 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D11" s="9" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>58.62</t>
         </is>
       </c>
     </row>
@@ -448,12 +448,12 @@
       </c>
       <c r="C14" s="8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.43</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="C15" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D15" s="9" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.29</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="C16" s="8" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D16" s="8" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>13.36</t>
         </is>
       </c>
     </row>
@@ -514,12 +514,12 @@
       </c>
       <c r="C17" s="9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D17" s="9" t="inlineStr">
         <is>
-          <t>11.35</t>
+          <t>14.22</t>
         </is>
       </c>
     </row>
@@ -536,12 +536,12 @@
       </c>
       <c r="C18" s="8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D18" s="8" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>6.47</t>
         </is>
       </c>
     </row>
@@ -558,12 +558,12 @@
       </c>
       <c r="C19" s="9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D19" s="9" t="inlineStr">
         <is>
-          <t>10.99</t>
+          <t>8.19</t>
         </is>
       </c>
     </row>
@@ -580,12 +580,12 @@
       </c>
       <c r="C20" s="8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>3.02</t>
         </is>
       </c>
     </row>
@@ -602,12 +602,12 @@
       </c>
       <c r="C21" s="9" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D21" s="9" t="inlineStr">
         <is>
-          <t>9.22</t>
+          <t>9.48</t>
         </is>
       </c>
     </row>
@@ -624,12 +624,12 @@
       </c>
       <c r="C22" s="8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>3.45</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="C23" s="9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D23" s="9" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>7.33</t>
         </is>
       </c>
     </row>
@@ -668,12 +668,12 @@
       </c>
       <c r="C24" s="8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>3.45</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="C25" s="9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D25" s="9" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>6.03</t>
         </is>
       </c>
     </row>
@@ -712,12 +712,12 @@
       </c>
       <c r="C26" s="8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>8.19</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       </c>
       <c r="C27" s="9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D27" s="9" t="inlineStr">
         <is>
-          <t>11.35</t>
+          <t>4.74</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>2.16</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="C29" s="9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D29" s="9" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>5.17</t>
         </is>
       </c>
     </row>
@@ -800,12 +800,12 @@
       </c>
       <c r="C30" s="8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>0.43</t>
         </is>
       </c>
     </row>
@@ -822,12 +822,12 @@
       </c>
       <c r="C31" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D31" s="9" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>1.72</t>
         </is>
       </c>
     </row>
@@ -844,12 +844,12 @@
       </c>
       <c r="C32" s="8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>0.43</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="C33" s="9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D33" s="9" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>0.43</t>
         </is>
       </c>
     </row>

--- a/blog/gender/gender_char.xlsx
+++ b/blog/gender/gender_char.xlsx
@@ -283,7 +283,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>2024.11.01. 월간</t>
+          <t>2024.12.01. 월간</t>
         </is>
       </c>
     </row>
@@ -319,7 +319,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>2024년 12월 08일 16시 47분 19초</t>
+          <t>2025년 01월 10일 01시 33분 24초</t>
         </is>
       </c>
     </row>
@@ -360,12 +360,12 @@
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>41.38</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -382,12 +382,12 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D11" s="9" t="inlineStr">
         <is>
-          <t>58.62</t>
+          <t>71</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.37</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="C15" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D15" s="9" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.86</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="C16" s="8" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D16" s="8" t="inlineStr">
         <is>
-          <t>13.36</t>
+          <t>10.78</t>
         </is>
       </c>
     </row>
@@ -514,12 +514,12 @@
       </c>
       <c r="C17" s="9" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D17" s="9" t="inlineStr">
         <is>
-          <t>14.22</t>
+          <t>43.49</t>
         </is>
       </c>
     </row>
@@ -536,12 +536,12 @@
       </c>
       <c r="C18" s="8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D18" s="8" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>5.95</t>
         </is>
       </c>
     </row>
@@ -558,12 +558,12 @@
       </c>
       <c r="C19" s="9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D19" s="9" t="inlineStr">
         <is>
-          <t>8.19</t>
+          <t>7.81</t>
         </is>
       </c>
     </row>
@@ -580,12 +580,12 @@
       </c>
       <c r="C20" s="8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.35</t>
         </is>
       </c>
     </row>
@@ -602,12 +602,12 @@
       </c>
       <c r="C21" s="9" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D21" s="9" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>3.35</t>
         </is>
       </c>
     </row>
@@ -624,12 +624,12 @@
       </c>
       <c r="C22" s="8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.6</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="C23" s="9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D23" s="9" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>2.6</t>
         </is>
       </c>
     </row>
@@ -668,12 +668,12 @@
       </c>
       <c r="C24" s="8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>1.86</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="C25" s="9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D25" s="9" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>2.97</t>
         </is>
       </c>
     </row>
@@ -712,12 +712,12 @@
       </c>
       <c r="C26" s="8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>8.19</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="D27" s="9" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.09</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.12</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="C29" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D29" s="9" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>1.49</t>
         </is>
       </c>
     </row>
@@ -800,12 +800,12 @@
       </c>
       <c r="C30" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>1.12</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="D31" s="9" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.49</t>
         </is>
       </c>
     </row>
@@ -844,12 +844,12 @@
       </c>
       <c r="C32" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>1.12</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="C33" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D33" s="9" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>1.86</t>
         </is>
       </c>
     </row>
